--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F707893F-EE47-4233-98F4-9A61A556D6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C78E34F-1A5D-409D-9615-C28BCFBD8F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Props" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -458,7 +458,7 @@
   <dimension ref="A1:XDX15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C78E34F-1A5D-409D-9615-C28BCFBD8F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Props" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>物品ID</t>
   </si>
@@ -28,6 +22,9 @@
     <t>物品名称</t>
   </si>
   <si>
+    <t>图标名称</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -40,47 +37,44 @@
     <t>Name</t>
   </si>
   <si>
+    <t>img</t>
+  </si>
+  <si>
     <t>1号</t>
   </si>
   <si>
+    <t>item_001</t>
+  </si>
+  <si>
     <t>2号</t>
   </si>
   <si>
+    <t>item_002</t>
+  </si>
+  <si>
     <t>3号</t>
   </si>
   <si>
+    <t>item_003</t>
+  </si>
+  <si>
     <t>4号</t>
   </si>
   <si>
-    <t>5号</t>
-  </si>
-  <si>
-    <t>6号</t>
-  </si>
-  <si>
-    <t>7号</t>
-  </si>
-  <si>
-    <t>8号</t>
-  </si>
-  <si>
-    <t>9号</t>
-  </si>
-  <si>
-    <t>10号</t>
-  </si>
-  <si>
-    <t>11号</t>
-  </si>
-  <si>
-    <t>12号</t>
+    <t>item_004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,19 +91,143 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +240,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,12 +429,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -147,22 +684,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,148 +1029,106 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XDX15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
-    <col min="3" max="16352" width="9" style="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="16352" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:3">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:3">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="1" spans="1:3">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="1" spans="1:3">
       <c r="A7">
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>10005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>10006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>10007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10009</v>
-      </c>
-      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>10010</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>10011</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>10012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ECF3CB-2946-47A1-920E-4517898C7642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Props" sheetId="1" r:id="rId1"/>
@@ -19,88 +13,189 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">吱吱吱：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        tools=1, //工具
+        seeds=2, //种子
+        foods=3,//食物
+        muck=4,//肥料
+        equipment=5,//装备
+        material=6,//素材
+        machine=7,//机器
+        furniture=8,//家具</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">吱吱吱：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">当mianType=1时
+        hoe=1,//锄头
+        pick=2,//镐
+        axe=3,//斧
+        wateringCan=4,//浇喷壶
+        fishingRod=5,//鱼竿
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>吱吱吱:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Maintype=1 tool时
+Maintype=2 Seeds时
+填写CropID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>物品ID</t>
+  </si>
+  <si>
+    <t>物品名称</t>
+  </si>
+  <si>
+    <t>图标名称</t>
+  </si>
+  <si>
+    <t>可举起</t>
+  </si>
+  <si>
+    <t>主类型</t>
+  </si>
+  <si>
+    <t>子类型</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>isLiftable</t>
+  </si>
+  <si>
+    <t>mainType</t>
+  </si>
+  <si>
+    <t>subType</t>
+  </si>
+  <si>
+    <t>para1</t>
+  </si>
+  <si>
+    <t>para2</t>
+  </si>
+  <si>
+    <t>1号</t>
+  </si>
+  <si>
+    <t>item_001</t>
+  </si>
+  <si>
+    <t>2号</t>
+  </si>
+  <si>
+    <t>item_002</t>
+  </si>
+  <si>
+    <t>3号</t>
+  </si>
   <si>
     <t>item_003</t>
   </si>
   <si>
+    <t>4号</t>
+  </si>
+  <si>
     <t>item_004</t>
-  </si>
-  <si>
-    <t>物品ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可举起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isLiftable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,34 +207,172 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +385,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,14 +580,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -177,110 +841,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -291,20 +934,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E25670B6-18A1-48BE-A53C-CD49483562A5}" name="表2" displayName="表2" ref="A3:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AA4DBC64-23C5-4B9F-9EDD-0A718B8A31FA}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D198467C-70F6-4B38-8BBC-CD2874DA2C4C}" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8502D7D9-CF6B-4A42-9818-FD5965BCE877}" name="img" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{000B3106-1019-450A-ABC9-21166D04AE20}" name="isLiftable" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:H7" totalsRowShown="0">
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="img" dataDxfId="2"/>
+    <tableColumn id="4" name="isLiftable" dataDxfId="3"/>
+    <tableColumn id="5" name="mainType"/>
+    <tableColumn id="6" name="subType"/>
+    <tableColumn id="7" name="para1"/>
+    <tableColumn id="8" name="para2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -591,139 +1235,191 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XDX12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="16352" width="9" style="1"/>
+    <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="16352" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="6">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" s="6">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6" s="6">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>10001</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="6">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G12" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD81AE0-71C2-4BD0-A574-22AD69A87B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Props" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,29 +161,25 @@
     <t>para2</t>
   </si>
   <si>
+    <t>锄头</t>
+  </si>
+  <si>
+    <t>Item_001</t>
+  </si>
+  <si>
+    <t>浇水壶</t>
+  </si>
+  <si>
+    <t>Item_002</t>
+  </si>
+  <si>
+    <t>防风草种子</t>
+  </si>
+  <si>
+    <t>Item_003</t>
+  </si>
+  <si>
     <t>甜瓜种子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>防风草种子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锄头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>浇水壶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_001</t>
-  </si>
-  <si>
-    <t>Item_002</t>
-  </si>
-  <si>
-    <t>Item_003</t>
   </si>
   <si>
     <t>Item_004</t>
@@ -198,8 +188,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +217,157 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -231,23 +378,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +392,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,9 +587,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -297,15 +857,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -336,24 +944,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A3:H7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:H7" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="img" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="isLiftable" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mainType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="subType"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="para1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="para2"/>
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="img" dataDxfId="2"/>
+    <tableColumn id="4" name="isLiftable" dataDxfId="3"/>
+    <tableColumn id="5" name="mainType"/>
+    <tableColumn id="6" name="subType"/>
+    <tableColumn id="7" name="para1"/>
+    <tableColumn id="8" name="para2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,19 +1245,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XDX7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
@@ -663,7 +1268,7 @@
     <col min="7" max="16352" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -689,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" ht="16.5" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -715,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -741,18 +1346,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="6">
         <v>10001</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -761,18 +1366,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="6">
         <v>10002</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -781,18 +1386,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="6">
         <v>10003</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -801,18 +1406,18 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7" s="6">
         <v>10004</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -822,15 +1427,15 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B556251-BF79-42B8-ABD5-C495AD66CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Props" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">吱吱吱：
@@ -35,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        tools=1, //工具
@@ -48,13 +56,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">吱吱吱：
@@ -64,6 +73,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">当mianType=1时
@@ -76,13 +86,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>吱吱吱:</t>
@@ -91,6 +102,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>物品ID</t>
   </si>
@@ -179,23 +191,46 @@
     <t>Item_003</t>
   </si>
   <si>
+    <t>Item_004</t>
+  </si>
+  <si>
+    <t>啤酒花</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_005</t>
+  </si>
+  <si>
     <t>甜瓜种子</t>
-  </si>
-  <si>
-    <t>Item_004</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒花种子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>防风草</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜瓜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_006</t>
+  </si>
+  <si>
+    <t>Item_007</t>
+  </si>
+  <si>
+    <t>Item_008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +242,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -214,172 +250,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,194 +295,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -587,255 +304,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,57 +338,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -944,21 +377,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:H7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A3:H11" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" name="Name" dataDxfId="1"/>
-    <tableColumn id="3" name="img" dataDxfId="2"/>
-    <tableColumn id="4" name="isLiftable" dataDxfId="3"/>
-    <tableColumn id="5" name="mainType"/>
-    <tableColumn id="6" name="subType"/>
-    <tableColumn id="7" name="para1"/>
-    <tableColumn id="8" name="para2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="img" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="isLiftable" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mainType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="subType"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="para1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="para2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,19 +681,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XDX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J22" sqref="J21:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
@@ -1268,7 +704,7 @@
     <col min="7" max="16352" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:8">
+    <row r="2" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>10001</v>
       </c>
@@ -1366,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>10002</v>
       </c>
@@ -1386,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>10003</v>
       </c>
@@ -1406,15 +842,15 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>10004</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -1426,13 +862,84 @@
         <v>10002</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B556251-BF79-42B8-ABD5-C495AD66CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Props" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">吱吱吱：
@@ -42,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        tools=1, //工具
@@ -56,14 +48,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">吱吱吱：
@@ -73,7 +64,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">当mianType=1时
@@ -86,14 +76,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>吱吱吱:</t>
@@ -102,13 +91,27 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Maintype=1 tool时
+填写体力消耗最小值
 Maintype=2 Seeds时
 填写CropID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>吱吱吱吱：
+当mainType为1（工具）时
+填写体力消耗的最大值</t>
         </r>
       </text>
     </comment>
@@ -191,36 +194,31 @@
     <t>Item_003</t>
   </si>
   <si>
+    <t>甜瓜种子</t>
+  </si>
+  <si>
     <t>Item_004</t>
   </si>
   <si>
+    <t>啤酒花种子</t>
+  </si>
+  <si>
+    <t>Item_005</t>
+  </si>
+  <si>
+    <t>防风草</t>
+  </si>
+  <si>
+    <t>Item_006</t>
+  </si>
+  <si>
+    <t>甜瓜</t>
+  </si>
+  <si>
+    <t>Item_007</t>
+  </si>
+  <si>
     <t>啤酒花</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_005</t>
-  </si>
-  <si>
-    <t>甜瓜种子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>啤酒花种子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>防风草</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜瓜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_006</t>
-  </si>
-  <si>
-    <t>Item_007</t>
   </si>
   <si>
     <t>Item_008</t>
@@ -229,8 +227,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +246,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -250,39 +253,172 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +431,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -304,9 +626,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -345,8 +909,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -377,24 +989,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A3:H11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:H11" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="img" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="isLiftable" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mainType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="subType"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="para1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="para2"/>
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="img" dataDxfId="2"/>
+    <tableColumn id="4" name="isLiftable" dataDxfId="3"/>
+    <tableColumn id="5" name="mainType"/>
+    <tableColumn id="6" name="subType"/>
+    <tableColumn id="7" name="para1"/>
+    <tableColumn id="8" name="para2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,19 +1290,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XDX11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J21:J22"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
@@ -704,7 +1313,7 @@
     <col min="7" max="16352" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -730,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" ht="16.5" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -756,7 +1365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -782,7 +1391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="6">
         <v>10001</v>
       </c>
@@ -801,8 +1410,14 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="6">
         <v>10002</v>
       </c>
@@ -821,8 +1436,14 @@
       <c r="F5">
         <v>4</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="6">
         <v>10003</v>
       </c>
@@ -842,15 +1463,15 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7" s="6">
         <v>10004</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -862,15 +1483,15 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="9">
         <v>10005</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -882,15 +1503,15 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>10006</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="9">
         <v>2</v>
@@ -899,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>10007</v>
       </c>
@@ -907,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -916,12 +1537,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>10008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>33</v>
@@ -934,12 +1555,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C89834-04E8-4F92-B5DA-071995661B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Props" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -97,11 +103,47 @@
 Maintype=1 tool时
 填写体力消耗最小值
 Maintype=2 Seeds时
-填写CropID</t>
+填写CropID
+当M</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ainType</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（食物）时
+填写体力恢复的最小值</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +153,18 @@
           </rPr>
           <t>吱吱吱吱：
 当mainType为1（工具）时
-填写体力消耗的最大值</t>
+填写体力消耗的最大值
+当mainType为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3（食物）时
+填写体力恢复的最大值</t>
         </r>
       </text>
     </comment>
@@ -227,14 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,150 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -417,8 +320,20 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,194 +346,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -626,251 +355,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,56 +396,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -989,21 +428,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:H11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A3:H11" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" name="Name" dataDxfId="1"/>
-    <tableColumn id="3" name="img" dataDxfId="2"/>
-    <tableColumn id="4" name="isLiftable" dataDxfId="3"/>
-    <tableColumn id="5" name="mainType"/>
-    <tableColumn id="6" name="subType"/>
-    <tableColumn id="7" name="para1"/>
-    <tableColumn id="8" name="para2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="img" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="isLiftable" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mainType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="subType"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="para1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="para2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1290,19 +732,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XDX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
@@ -1313,7 +755,7 @@
     <col min="7" max="16352" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="1:8">
+    <row r="2" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:8">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1391,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>10001</v>
       </c>
@@ -1417,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>10002</v>
       </c>
@@ -1443,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>10003</v>
       </c>
@@ -1463,7 +905,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>10004</v>
       </c>
@@ -1483,7 +925,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>10005</v>
       </c>
@@ -1503,7 +945,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>10006</v>
       </c>
@@ -1519,8 +961,14 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>10007</v>
       </c>
@@ -1536,8 +984,14 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>10008</v>
       </c>
@@ -1553,14 +1007,20 @@
       <c r="E11" s="2">
         <v>3</v>
       </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/策划/表格配置/W-物品.xlsx
+++ b/策划/表格配置/W-物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C89834-04E8-4F92-B5DA-071995661B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Props" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,46 +98,12 @@
 填写体力消耗最小值
 Maintype=2 Seeds时
 填写CropID
-当M</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ainType</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>=</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（食物）时
+当MainType=3（食物）时
 填写体力恢复的最小值</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,16 +114,7 @@
           <t>吱吱吱吱：
 当mainType为1（工具）时
 填写体力消耗的最大值
-当mainType为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>3（食物）时
+当mainType为3（食物）时
 填写体力恢复的最大值</t>
         </r>
       </text>
@@ -280,8 +231,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,10 +260,147 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,20 +414,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,8 +428,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -355,13 +623,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,21 +893,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -428,24 +980,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A3:H11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:H11" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="img" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="isLiftable" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mainType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="subType"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="para1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="para2"/>
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="img" dataDxfId="2"/>
+    <tableColumn id="4" name="isLiftable" dataDxfId="3"/>
+    <tableColumn id="5" name="mainType"/>
+    <tableColumn id="6" name="subType"/>
+    <tableColumn id="7" name="para1"/>
+    <tableColumn id="8" name="para2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,19 +1281,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XDX11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="2" customWidth="1"/>
@@ -755,7 +1304,7 @@
     <col min="7" max="16352" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -781,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" ht="16.5" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -807,7 +1356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -833,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="6">
         <v>10001</v>
       </c>
@@ -843,7 +1392,7 @@
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4">
@@ -859,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="6">
         <v>10002</v>
       </c>
@@ -885,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="6">
         <v>10003</v>
       </c>
@@ -905,7 +1454,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7" s="6">
         <v>10004</v>
       </c>
@@ -925,17 +1474,17 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
         <v>10005</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="2">
@@ -945,7 +1494,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>10006</v>
       </c>
@@ -955,7 +1504,7 @@
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2</v>
       </c>
       <c r="E9" s="2">
@@ -968,7 +1517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>10007</v>
       </c>
@@ -978,7 +1527,7 @@
       <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="2">
@@ -991,17 +1540,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>10008</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="2">
@@ -1015,12 +1564,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
